--- a/Data_clean/MCAS/Estados_US/Edos_USA_2013/NEW_HAMPSHIRE_2013.xlsx
+++ b/Data_clean/MCAS/Estados_US/Edos_USA_2013/NEW_HAMPSHIRE_2013.xlsx
@@ -506,6 +506,11 @@
       </c>
     </row>
     <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>Colima</t>
+        </is>
+      </c>
       <c r="B9" t="inlineStr">
         <is>
           <t>Comala</t>
@@ -519,6 +524,11 @@
       </c>
     </row>
     <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Colima</t>
+        </is>
+      </c>
       <c r="B10" t="inlineStr">
         <is>
           <t>Coquimatlan</t>
@@ -532,6 +542,11 @@
       </c>
     </row>
     <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Colima</t>
+        </is>
+      </c>
       <c r="B11" t="inlineStr">
         <is>
           <t>Manzanillo</t>
@@ -545,6 +560,11 @@
       </c>
     </row>
     <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Colima</t>
+        </is>
+      </c>
       <c r="B12" t="inlineStr">
         <is>
           <t>Total</t>
@@ -576,6 +596,11 @@
       </c>
     </row>
     <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Distrito Federal</t>
+        </is>
+      </c>
       <c r="B14" t="inlineStr">
         <is>
           <t>Coyoacan</t>
@@ -589,6 +614,11 @@
       </c>
     </row>
     <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>Distrito Federal</t>
+        </is>
+      </c>
       <c r="B15" t="inlineStr">
         <is>
           <t>Gustavo A. Madero</t>
@@ -602,6 +632,11 @@
       </c>
     </row>
     <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Distrito Federal</t>
+        </is>
+      </c>
       <c r="B16" t="inlineStr">
         <is>
           <t>Iztapalapa</t>
@@ -615,6 +650,11 @@
       </c>
     </row>
     <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>Distrito Federal</t>
+        </is>
+      </c>
       <c r="B17" t="inlineStr">
         <is>
           <t>Total</t>
@@ -646,6 +686,11 @@
       </c>
     </row>
     <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>Durango</t>
+        </is>
+      </c>
       <c r="B19" t="inlineStr">
         <is>
           <t>Vicente Guerrero</t>
@@ -659,6 +704,11 @@
       </c>
     </row>
     <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>Durango</t>
+        </is>
+      </c>
       <c r="B20" t="inlineStr">
         <is>
           <t>Total</t>
@@ -690,6 +740,11 @@
       </c>
     </row>
     <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>Guanajuato</t>
+        </is>
+      </c>
       <c r="B22" t="inlineStr">
         <is>
           <t>Cortazar</t>
@@ -703,6 +758,11 @@
       </c>
     </row>
     <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>Guanajuato</t>
+        </is>
+      </c>
       <c r="B23" t="inlineStr">
         <is>
           <t>Total</t>
@@ -734,6 +794,11 @@
       </c>
     </row>
     <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B25" t="inlineStr">
         <is>
           <t>Chilpancingo De Los Bravo</t>
@@ -747,6 +812,11 @@
       </c>
     </row>
     <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B26" t="inlineStr">
         <is>
           <t>Ometepec</t>
@@ -760,6 +830,11 @@
       </c>
     </row>
     <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B27" t="inlineStr">
         <is>
           <t>San Marcos</t>
@@ -773,6 +848,11 @@
       </c>
     </row>
     <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B28" t="inlineStr">
         <is>
           <t>Total</t>
@@ -804,6 +884,11 @@
       </c>
     </row>
     <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>Hidalgo</t>
+        </is>
+      </c>
       <c r="B30" t="inlineStr">
         <is>
           <t>Huichapan</t>
@@ -853,6 +938,11 @@
       </c>
     </row>
     <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B33" t="inlineStr">
         <is>
           <t>Cuautitlan De Garcia Barragan</t>
@@ -866,6 +956,11 @@
       </c>
     </row>
     <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B34" t="inlineStr">
         <is>
           <t>Degollado</t>
@@ -879,6 +974,11 @@
       </c>
     </row>
     <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B35" t="inlineStr">
         <is>
           <t>El Grullo</t>
@@ -892,6 +992,11 @@
       </c>
     </row>
     <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B36" t="inlineStr">
         <is>
           <t>Guadalajara</t>
@@ -905,6 +1010,11 @@
       </c>
     </row>
     <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B37" t="inlineStr">
         <is>
           <t>Tuxpan</t>
@@ -918,6 +1028,11 @@
       </c>
     </row>
     <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B38" t="inlineStr">
         <is>
           <t>Union De Tula</t>
@@ -931,6 +1046,11 @@
       </c>
     </row>
     <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B39" t="inlineStr">
         <is>
           <t>Zapotlan El Grande</t>
@@ -944,6 +1064,11 @@
       </c>
     </row>
     <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B40" t="inlineStr">
         <is>
           <t>Total</t>
@@ -975,6 +1100,11 @@
       </c>
     </row>
     <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>Mexico</t>
+        </is>
+      </c>
       <c r="B42" t="inlineStr">
         <is>
           <t>Aculco</t>
@@ -988,6 +1118,11 @@
       </c>
     </row>
     <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>Mexico</t>
+        </is>
+      </c>
       <c r="B43" t="inlineStr">
         <is>
           <t>Coatepec Harinas</t>
@@ -1001,6 +1136,11 @@
       </c>
     </row>
     <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>Mexico</t>
+        </is>
+      </c>
       <c r="B44" t="inlineStr">
         <is>
           <t>San Felipe Del Progreso</t>
@@ -1014,6 +1154,11 @@
       </c>
     </row>
     <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>Mexico</t>
+        </is>
+      </c>
       <c r="B45" t="inlineStr">
         <is>
           <t>Tejupilco</t>
@@ -1027,6 +1172,11 @@
       </c>
     </row>
     <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>Mexico</t>
+        </is>
+      </c>
       <c r="B46" t="inlineStr">
         <is>
           <t>Tlalnepantla De Baz</t>
@@ -1040,6 +1190,11 @@
       </c>
     </row>
     <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>Mexico</t>
+        </is>
+      </c>
       <c r="B47" t="inlineStr">
         <is>
           <t>Toluca</t>
@@ -1053,6 +1208,11 @@
       </c>
     </row>
     <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>Mexico</t>
+        </is>
+      </c>
       <c r="B48" t="inlineStr">
         <is>
           <t>Zacazonapan</t>
@@ -1102,6 +1262,11 @@
       </c>
     </row>
     <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>Michoacan De Ocampo</t>
+        </is>
+      </c>
       <c r="B51" t="inlineStr">
         <is>
           <t>La Piedad</t>
@@ -1223,6 +1388,11 @@
       </c>
     </row>
     <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>Nuevo Leon</t>
+        </is>
+      </c>
       <c r="B58" t="inlineStr">
         <is>
           <t>Monterrey</t>
@@ -1308,6 +1478,11 @@
       </c>
     </row>
     <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B63" t="inlineStr">
         <is>
           <t>Puebla</t>
@@ -1321,6 +1496,11 @@
       </c>
     </row>
     <row r="64">
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B64" t="inlineStr">
         <is>
           <t>Teziutlan</t>
@@ -1370,6 +1550,11 @@
       </c>
     </row>
     <row r="67">
+      <c r="A67" t="inlineStr">
+        <is>
+          <t>Queretaro De Arteaga</t>
+        </is>
+      </c>
       <c r="B67" t="inlineStr">
         <is>
           <t>Jalpan De Serra</t>
@@ -1383,6 +1568,11 @@
       </c>
     </row>
     <row r="68">
+      <c r="A68" t="inlineStr">
+        <is>
+          <t>Queretaro De Arteaga</t>
+        </is>
+      </c>
       <c r="B68" t="inlineStr">
         <is>
           <t>Queretaro</t>
@@ -1432,6 +1622,11 @@
       </c>
     </row>
     <row r="71">
+      <c r="A71" t="inlineStr">
+        <is>
+          <t>San Luis Potosi</t>
+        </is>
+      </c>
       <c r="B71" t="inlineStr">
         <is>
           <t>Ciudad Valles</t>
@@ -1445,6 +1640,11 @@
       </c>
     </row>
     <row r="72">
+      <c r="A72" t="inlineStr">
+        <is>
+          <t>San Luis Potosi</t>
+        </is>
+      </c>
       <c r="B72" t="inlineStr">
         <is>
           <t>Rioverde</t>
@@ -1458,6 +1658,11 @@
       </c>
     </row>
     <row r="73">
+      <c r="A73" t="inlineStr">
+        <is>
+          <t>San Luis Potosi</t>
+        </is>
+      </c>
       <c r="B73" t="inlineStr">
         <is>
           <t>Tamuin</t>
@@ -1543,6 +1748,11 @@
       </c>
     </row>
     <row r="78">
+      <c r="A78" t="inlineStr">
+        <is>
+          <t>Veracruz De Ignacio De La Llave</t>
+        </is>
+      </c>
       <c r="B78" t="inlineStr">
         <is>
           <t>Catemaco</t>
@@ -1556,6 +1766,11 @@
       </c>
     </row>
     <row r="79">
+      <c r="A79" t="inlineStr">
+        <is>
+          <t>Veracruz De Ignacio De La Llave</t>
+        </is>
+      </c>
       <c r="B79" t="inlineStr">
         <is>
           <t>Lerdo De Tejada</t>
@@ -1569,6 +1784,11 @@
       </c>
     </row>
     <row r="80">
+      <c r="A80" t="inlineStr">
+        <is>
+          <t>Veracruz De Ignacio De La Llave</t>
+        </is>
+      </c>
       <c r="B80" t="inlineStr">
         <is>
           <t>Xalapa</t>
@@ -1582,6 +1802,11 @@
       </c>
     </row>
     <row r="81">
+      <c r="A81" t="inlineStr">
+        <is>
+          <t>Veracruz De Ignacio De La Llave</t>
+        </is>
+      </c>
       <c r="B81" t="inlineStr">
         <is>
           <t>Total</t>
@@ -1613,6 +1838,11 @@
       </c>
     </row>
     <row r="83">
+      <c r="A83" t="inlineStr">
+        <is>
+          <t>Zacatecas</t>
+        </is>
+      </c>
       <c r="B83" t="inlineStr">
         <is>
           <t>Juan Aldama</t>
@@ -1626,6 +1856,11 @@
       </c>
     </row>
     <row r="84">
+      <c r="A84" t="inlineStr">
+        <is>
+          <t>Zacatecas</t>
+        </is>
+      </c>
       <c r="B84" t="inlineStr">
         <is>
           <t>Sombrerete</t>
@@ -1639,6 +1874,11 @@
       </c>
     </row>
     <row r="85">
+      <c r="A85" t="inlineStr">
+        <is>
+          <t>Zacatecas</t>
+        </is>
+      </c>
       <c r="B85" t="inlineStr">
         <is>
           <t>Total</t>
